--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="379">
   <si>
     <t xml:space="preserve">User template for the definition of specific…</t>
   </si>
@@ -413,9 +413,21 @@
     <t xml:space="preserve">fraction</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
     <t xml:space="preserve">Simulation settings</t>
   </si>
   <si>
+    <t xml:space="preserve">Start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-MM-YYYY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evaluated timeframe</t>
   </si>
   <si>
@@ -572,7 +584,7 @@
     <t xml:space="preserve">Shore power (docked ships)</t>
   </si>
   <si>
-    <t xml:space="preserve">tbd</t>
+    <t xml:space="preserve">demand_shore_power.csv</t>
   </si>
   <si>
     <t xml:space="preserve">possible in future</t>
@@ -584,10 +596,16 @@
     <t xml:space="preserve">Reefers (heating and cooling)</t>
   </si>
   <si>
+    <t xml:space="preserve">demand_reefers.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demand 3</t>
   </si>
   <si>
     <t xml:space="preserve">Remaining energy demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand_remaining.csv</t>
   </si>
   <si>
     <t xml:space="preserve">not dispatchable</t>
@@ -957,6 +975,9 @@
   </si>
   <si>
     <t xml:space="preserve">Historical electricity generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pv_gen.csv</t>
   </si>
   <si>
     <t xml:space="preserve">electric, timeseries, hourly values, per kWp installed</t>
@@ -1732,33 +1753,15 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -2533,7 +2536,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -2576,7 +2579,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -2632,14 +2635,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -2650,7 +2653,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -2694,7 +2697,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -2709,13 +2712,13 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -2724,7 +2727,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -2741,13 +2744,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -2764,10 +2767,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>92</v>
@@ -2777,67 +2780,67 @@
     </row>
     <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="53" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="60" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="60" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="60" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2868,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2893,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -2910,16 +2913,16 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>92</v>
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -2960,23 +2963,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>92</v>
@@ -2998,10 +3001,10 @@
         <v>4000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,23 +3022,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="42" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>92</v>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -3076,23 +3079,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="42" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>92</v>
@@ -3114,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -3133,14 +3136,14 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3151,7 +3154,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3182,25 +3185,25 @@
     <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="54" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C21" s="49" t="n">
         <v>10</v>
@@ -3218,7 +3221,7 @@
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C22" s="49" t="n">
         <v>10</v>
@@ -3236,7 +3239,7 @@
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>10</v>
@@ -3254,7 +3257,7 @@
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="54" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>10</v>
@@ -3275,7 +3278,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>91</v>
@@ -3286,62 +3289,62 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C27" s="33" t="n">
         <v>20</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C28" s="33" t="n">
         <v>100</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C29" s="33" t="n">
         <v>95</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C30" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C31" s="33" t="n">
         <v>95</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C32" s="33" t="n">
         <v>1</v>
@@ -3352,38 +3355,38 @@
     </row>
     <row r="33" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="48" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3432,7 +3435,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3452,16 +3455,16 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>92</v>
@@ -3483,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -3502,23 +3505,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>92</v>
@@ -3540,10 +3543,10 @@
         <v>4000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,23 +3564,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="42" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>92</v>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" s="19"/>
     </row>
@@ -3618,23 +3621,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="42" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>92</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -3675,14 +3678,14 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3693,7 +3696,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3724,19 +3727,19 @@
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,19 +3751,19 @@
         <v>95</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E21" s="57" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="54" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -3770,7 +3773,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -3780,7 +3783,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="54" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -3790,7 +3793,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
       <c r="B25" s="54" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -3803,59 +3806,59 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="31" t="s">
@@ -3864,11 +3867,11 @@
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3917,7 +3920,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3969,7 +3972,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3988,7 +3991,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4003,14 +4006,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4029,7 +4032,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4070,7 +4073,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4103,7 +4106,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4131,19 +4134,19 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,18 +4157,18 @@
         <v>95</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4174,7 +4177,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4183,7 +4186,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4195,59 +4198,59 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4302,7 +4305,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4329,7 +4332,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4354,7 +4357,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4373,7 +4376,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4388,14 +4391,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4414,7 +4417,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4429,14 +4432,14 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4488,7 +4491,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4514,19 +4517,19 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,18 +4540,18 @@
         <v>95</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4557,7 +4560,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4578,59 +4581,59 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31" t="s">
@@ -4639,16 +4642,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="48" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="53" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4703,7 +4706,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4730,7 +4733,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4755,7 +4758,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4774,7 +4777,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4789,14 +4792,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4815,7 +4818,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4830,14 +4833,14 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4856,7 +4859,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4889,7 +4892,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4920,19 +4923,19 @@
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G19" s="19"/>
     </row>
@@ -4945,19 +4948,19 @@
         <v>95</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4966,7 +4969,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4987,64 +4990,64 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="53" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5085,12 +5088,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="7" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="41" style="0" width="8.54"/>
   </cols>
@@ -5143,7 +5146,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5178,7 +5181,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
       <c r="AH6" s="19"/>
@@ -5194,7 +5197,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
       <c r="AH7" s="19"/>
@@ -5202,7 +5205,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5214,7 +5217,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5264,7 +5267,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -5276,7 +5279,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5290,14 +5293,14 @@
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5306,14 +5309,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5322,11 +5325,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5336,7 +5339,7 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -5348,11 +5351,11 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -5361,7 +5364,7 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5406,7 +5409,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -5449,7 +5452,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5482,7 +5485,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -5497,14 +5500,14 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5515,7 +5518,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5561,7 +5564,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -5574,11 +5577,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5587,14 +5590,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5602,11 +5605,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5615,7 +5618,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -5626,11 +5629,11 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -5683,7 +5686,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="63" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5710,7 +5713,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5743,7 +5746,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -5758,14 +5761,14 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5776,7 +5779,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5822,7 +5825,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -5833,7 +5836,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5846,11 +5849,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -5859,14 +5862,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5874,11 +5877,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5898,14 +5901,14 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -5913,14 +5916,14 @@
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5977,7 +5980,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5997,7 +6000,7 @@
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="21" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -6015,7 +6018,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
@@ -6048,7 +6051,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6063,14 +6066,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6081,7 +6084,7 @@
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -6125,7 +6128,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -6138,11 +6141,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -6151,14 +6154,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -6166,11 +6169,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -6178,7 +6181,7 @@
     </row>
     <row r="18" s="64" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -6187,7 +6190,7 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -6199,7 +6202,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>92</v>
@@ -6209,20 +6212,20 @@
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="48" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="48" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -6241,7 +6244,7 @@
         <v>90</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>92</v>
@@ -6249,27 +6252,27 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -6528,7 +6531,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6555,7 +6558,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -6588,7 +6591,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -6603,14 +6606,14 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6621,7 +6624,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6665,7 +6668,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -6678,11 +6681,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -6691,14 +6694,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -6706,11 +6709,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6739,7 +6742,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>92</v>
@@ -6749,20 +6752,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6771,7 +6774,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -6781,7 +6784,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>92</v>
@@ -6789,27 +6792,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6868,7 +6871,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6895,7 +6898,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -6928,7 +6931,7 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -6943,14 +6946,14 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6961,7 +6964,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -7005,7 +7008,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -7018,11 +7021,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -7031,14 +7034,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -7046,11 +7049,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -7067,7 +7070,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -7079,7 +7082,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>92</v>
@@ -7089,20 +7092,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -7111,7 +7114,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -7121,7 +7124,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>92</v>
@@ -7129,27 +7132,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -7179,10 +7182,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F1048576"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7190,7 +7193,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="12.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="19" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="12.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="19" width="11.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,68 +7369,89 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="33" t="n">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="33" t="n">
         <v>365</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="33" t="n">
+      <c r="D25" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="33" t="n">
         <v>60</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="38" t="s">
+      <c r="D26" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39" t="s">
+      <c r="E26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="39" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:C2"/>
@@ -7435,7 +7460,7 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7454,18 +7479,18 @@
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="12.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="19" width="13.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="19" width="11.54"/>
@@ -7473,21 +7498,21 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>92</v>
@@ -7507,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7524,21 +7549,21 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>92</v>
@@ -7558,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,17 +7600,17 @@
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7595,7 +7620,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>91</v>
@@ -7606,7 +7631,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
@@ -7617,7 +7642,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>10</v>
@@ -7626,26 +7651,26 @@
         <v>95</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>91</v>
@@ -7656,7 +7681,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>30</v>
@@ -7667,18 +7692,18 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>1250</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5</v>
@@ -7687,73 +7712,73 @@
         <v>95</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E25" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="45" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F28" s="46" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H28" s="46" t="s">
         <v>84</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>84</v>
@@ -7761,13 +7786,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C29" s="33" t="n">
         <v>50</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E29" s="33" t="n">
         <v>0</v>
@@ -7779,24 +7804,24 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I29" s="33" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C30" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E30" s="33" t="n">
         <v>4000</v>
@@ -7808,106 +7833,106 @@
         <v>0.04</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I30" s="33" t="n">
         <v>60</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -7916,12 +7941,12 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="19" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7955,18 +7980,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="11.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="19" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="19" width="11.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7978,7 +8003,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -8011,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,22 +8053,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,7 +8080,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8088,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,17 +8130,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8136,14 +8161,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>0</v>
@@ -8154,7 +8179,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>0</v>
@@ -8163,44 +8188,44 @@
         <v>95</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C25" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C26" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C28" s="49" t="n">
         <v>0</v>
@@ -8211,18 +8236,18 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C29" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C30" s="49" t="n">
         <v>0</v>
@@ -8231,31 +8256,31 @@
         <v>95</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>92</v>
@@ -8263,67 +8288,67 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F36" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8368,18 +8393,18 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="12.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="19" width="11.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8391,7 +8416,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -8412,7 +8437,7 @@
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="32" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C7" s="49" t="n">
         <v>0</v>
@@ -8424,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8441,22 +8466,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8468,7 +8493,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8501,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,17 +8543,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,14 +8574,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>0</v>
@@ -8567,7 +8592,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>0</v>
@@ -8576,44 +8601,44 @@
         <v>95</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C28" s="33" t="n">
         <v>0</v>
@@ -8624,18 +8649,18 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C29" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C30" s="33" t="n">
         <v>0</v>
@@ -8644,72 +8669,72 @@
         <v>95</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C34" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -8721,46 +8746,46 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C38" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C39" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C40" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="36" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -8768,24 +8793,24 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C42" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C43" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -8830,7 +8855,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="19" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="19" width="13.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="19" width="11.54"/>
@@ -8838,12 +8863,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,7 +8880,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -8888,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,17 +8930,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8936,14 +8961,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="36" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -8954,18 +8979,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="48" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>0</v>
@@ -8974,18 +8999,18 @@
         <v>95</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,48 +9022,48 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="52" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -9046,10 +9071,10 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -9057,10 +9082,10 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -9068,29 +9093,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="53" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9102,7 +9127,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="54" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
@@ -9111,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0</v>
@@ -9119,7 +9144,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="54" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C34" s="33" t="n">
         <v>0</v>
@@ -9128,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F34" s="33" t="n">
         <v>0</v>
@@ -9136,7 +9161,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="54" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
@@ -9145,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F35" s="33" t="n">
         <v>0</v>
@@ -9156,37 +9181,37 @@
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E37" s="55"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="54" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C40" s="56" t="n">
         <v>0</v>
@@ -9200,7 +9225,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="54" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C41" s="56" t="n">
         <v>0</v>
@@ -9214,7 +9239,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="54" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C42" s="56" t="n">
         <v>0</v>
@@ -9228,31 +9253,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12"/>
       <c r="C45" s="12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="54" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C46" s="56" t="n">
         <v>0</v>
@@ -9266,7 +9291,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="54" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C47" s="56" t="n">
         <v>0</v>
@@ -9280,7 +9305,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="54" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C48" s="56" t="n">
         <v>0</v>
@@ -9294,7 +9319,7 @@
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9305,13 +9330,13 @@
         <v>92</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,10 +9348,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="54" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D53" s="33" t="n">
         <v>0</v>
@@ -9340,10 +9365,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="54" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D54" s="33" t="n">
         <v>0</v>
@@ -9357,10 +9382,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="54" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D55" s="33" t="n">
         <v>0</v>
@@ -9374,10 +9399,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="54" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D56" s="33" t="n">
         <v>0</v>
@@ -9391,10 +9416,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="54" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D57" s="33" t="n">
         <v>0</v>
@@ -9408,7 +9433,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="54" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>102</v>
@@ -9425,10 +9450,10 @@
     </row>
     <row r="59" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="32" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D59" s="33" t="n">
         <v>0</v>
@@ -9483,7 +9508,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9491,7 +9516,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -9507,7 +9532,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -9527,16 +9552,16 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>92</v>
@@ -9558,10 +9583,10 @@
         <v>7200</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9579,23 +9604,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>92</v>
@@ -9617,10 +9642,10 @@
         <v>6000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9638,14 +9663,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -9656,7 +9681,7 @@
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -9687,7 +9712,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="27" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>91</v>
@@ -9702,7 +9727,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
@@ -9717,13 +9742,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -9732,7 +9757,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>0</v>
@@ -9741,7 +9766,7 @@
         <v>95</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -9749,13 +9774,13 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -9773,7 +9798,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="27" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>91</v>
@@ -9788,7 +9813,7 @@
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="34" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>15</v>
@@ -9803,13 +9828,13 @@
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -9818,7 +9843,7 @@
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>0</v>
@@ -9827,25 +9852,25 @@
         <v>95</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="18" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -9854,10 +9879,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="35" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>92</v>
@@ -9867,59 +9892,59 @@
     </row>
     <row r="28" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F28" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="53" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="60" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="60" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="60" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="60" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D34" s="53"/>
     </row>
@@ -9998,7 +10023,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -10035,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -10054,14 +10079,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -10072,7 +10097,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -10116,7 +10141,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -10131,13 +10156,13 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -10146,7 +10171,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -10155,7 +10180,7 @@
         <v>95</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -10163,13 +10188,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -10177,7 +10202,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -10186,10 +10211,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>92</v>
@@ -10199,22 +10224,22 @@
     </row>
     <row r="20" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="53" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -10222,30 +10247,30 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="60" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="60" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="60" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,17 +18,16 @@
     <sheet name="PV plant" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Wind plant" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Solar-thermal plant" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="ESS 1" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="ESS 2" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="LNG storage" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Thermal storage" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="H2 storage" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Gas Boiler" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Electrolyzer" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="CHP" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="HVAC" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Geothermal electricity plant" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Geothermal conversion" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="ESS" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="LNG storage" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Thermal storage" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="H2 storage" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Gas Boiler" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Electrolyzer" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="CHP" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="HVAC" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Geothermal electricity plant" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Geothermal conversion" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="381">
   <si>
     <t xml:space="preserve">User template for the definition of specific…</t>
   </si>
@@ -148,11 +147,7 @@
     <t xml:space="preserve">Storage</t>
   </si>
   <si>
-    <t xml:space="preserve">ESS 1
-(Electricity Storage System)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS 2
+    <t xml:space="preserve">ESS
 (Electricity Storage System)</t>
   </si>
   <si>
@@ -515,13 +510,22 @@
     <t xml:space="preserve">kW</t>
   </si>
   <si>
-    <t xml:space="preserve">Losses rel. to kWh provided</t>
+    <t xml:space="preserve">Distribution efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Feed-in tariff (RES)</t>
   </si>
   <si>
     <t xml:space="preserve">Feed-in tariff (non-RES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimize additional capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes/No</t>
   </si>
   <si>
     <t xml:space="preserve">Composition of electricity bill</t>
@@ -653,12 +657,6 @@
   </si>
   <si>
     <t xml:space="preserve">Compressor for heat circulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize additional capacities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes/No</t>
   </si>
   <si>
     <t xml:space="preserve">Heat demand time series</t>
@@ -962,10 +960,10 @@
     <t xml:space="preserve">kWp</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solar MPP, inverter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Solar electricity generation</t>
@@ -1098,9 +1096,6 @@
     <t xml:space="preserve">Age of installed asset (a)</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimize additional capacities (Yes/No)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Charging power</t>
   </si>
   <si>
@@ -1113,67 +1108,76 @@
     <t xml:space="preserve">Charge controller/inverter</t>
   </si>
   <si>
+    <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial charge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set to “None” if undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Yes/No)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverter efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflow capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency/m3/h*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outflow capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**) related to gas throughput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 / m3/h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technical parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Initial charge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set to “None” if undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverter efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS 2 (Electricity storage system) </t>
+    <t xml:space="preserve">Min. storage use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. storage use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage loss per timestep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any pumps connected to this – capacity, costs, demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal storage (Hot water termal storage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage charging stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage volumne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage discharging stream</t>
   </si>
   <si>
     <t xml:space="preserve">kW/kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNG Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflow capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency/m3/h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outflow capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**) related to gas throughput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3 / m3/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min. storage use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. storage use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage loss per timestep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any pumps connected to this – capacity, costs, demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermal storage (Hot water termal storage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage charging stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage volumne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage discharging stream</t>
   </si>
   <si>
     <t xml:space="preserve">Charging stream</t>
@@ -1289,10 +1293,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="HH:MM"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1482,7 +1487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1723,6 +1728,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1752,10 +1761,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="6">
     <dxf/>
     <dxf/>
     <dxf/>
@@ -1831,10 +1837,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2176,17 +2182,17 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
@@ -2198,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,34 +2219,36 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16" t="s">
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="10" t="s">
@@ -2249,32 +2257,32 @@
       <c r="C42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2290,44 +2298,42 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="17" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,10 +2344,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,55 +2358,41 @@
         <v>48</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2409,12 +2401,12 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B54:G54"/>
     <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12 B15:B19 B38:B40 B36 B30:B34 B42:B45">
+  <conditionalFormatting sqref="B12 B15:B19 B37:B39 B36 B30:B34 B41:B44">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Yes"</formula>
     </cfRule>
@@ -2422,91 +2414,63 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B46:B49">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B50">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:G36 D42:G45 D38:G40 D30:G34">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="D36:G36 D41:G44 D37:G39 D30:G34">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D46:G49">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:G28">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:G35">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="D40:G40">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:G50">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:G28">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:G35">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:G41">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:G46">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="D45:G45">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B15" type="list">
-      <formula1>$B$8:$B$9</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2572,14 +2536,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -2588,54 +2552,54 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2673,7 +2637,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2685,10 +2649,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -2703,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -2712,7 +2676,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>0</v>
@@ -2727,16 +2691,16 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -2744,13 +2708,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -2773,7 +2737,7 @@
         <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -2820,7 +2784,7 @@
       <c r="C24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="61" t="s">
         <v>281</v>
       </c>
       <c r="C25" s="53" t="s">
@@ -2828,7 +2792,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="61" t="s">
         <v>283</v>
       </c>
       <c r="C26" s="53" t="s">
@@ -2836,7 +2800,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>285</v>
       </c>
       <c r="C27" s="53" t="s">
@@ -2868,8 +2832,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2916,54 +2880,54 @@
         <v>306</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19"/>
       <c r="B5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -2973,29 +2937,29 @@
         <v>307</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>4000</v>
@@ -3010,19 +2974,19 @@
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="19"/>
     </row>
@@ -3032,54 +2996,54 @@
         <v>310</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E11" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="19"/>
     </row>
@@ -3089,54 +3053,54 @@
         <v>311</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="19"/>
     </row>
@@ -3174,7 +3138,7 @@
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -3182,7 +3146,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
         <v>314</v>
@@ -3196,14 +3160,11 @@
       <c r="E20" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" s="49" t="n">
         <v>10</v>
@@ -3214,14 +3175,11 @@
       <c r="E21" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" s="49" t="n">
         <v>10</v>
@@ -3232,14 +3190,11 @@
       <c r="E22" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>10</v>
@@ -3250,14 +3205,11 @@
       <c r="E23" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>10</v>
@@ -3268,129 +3220,164 @@
       <c r="E24" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="34" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="33" t="n">
+      <c r="C28" s="49" t="n">
         <v>20</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34" t="s">
+      <c r="D28" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="33" t="n">
+      <c r="C29" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="34" t="s">
+      <c r="D29" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="33" t="n">
+      <c r="C30" s="49" t="n">
         <v>95</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="34" t="s">
+      <c r="D30" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="33" t="n">
+      <c r="C31" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D31" s="31" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="34" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="33" t="n">
+      <c r="C32" s="49" t="n">
         <v>95</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="34" t="s">
+      <c r="D32" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="33" t="n">
+      <c r="C33" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="48" t="s">
+      <c r="D33" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="31" t="s">
+      <c r="C34" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="C35" s="33" t="n">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D38" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3404,491 +3391,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
-      <c r="B23" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B27:D27"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3940,14 +3442,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3956,16 +3458,16 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -3983,11 +3485,11 @@
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
@@ -3998,11 +3500,11 @@
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
@@ -4013,7 +3515,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4024,11 +3526,11 @@
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
@@ -4039,11 +3541,11 @@
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
@@ -4065,11 +3567,11 @@
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
@@ -4080,11 +3582,11 @@
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
@@ -4125,7 +3627,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4137,33 +3639,33 @@
         <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>130</v>
-      </c>
       <c r="F19" s="45" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>335</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>184</v>
+        <v>94</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +3679,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4198,27 +3700,27 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +3729,7 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,12 +3738,12 @@
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
@@ -4250,7 +3752,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4273,7 +3775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4305,7 +3807,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4325,14 +3827,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4341,23 +3843,23 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4368,37 +3870,37 @@
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4409,11 +3911,11 @@
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
@@ -4424,22 +3926,22 @@
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4450,30 +3952,30 @@
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -4508,7 +4010,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4520,38 +4022,38 @@
         <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>130</v>
-      </c>
       <c r="F19" s="45" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>184</v>
+        <v>94</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4560,7 +4062,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4569,7 +4071,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4581,27 +4083,27 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,12 +4112,12 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
@@ -4628,21 +4130,21 @@
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31" t="s">
@@ -4651,7 +4153,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +4176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4706,7 +4208,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4726,14 +4228,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4742,16 +4244,16 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -4769,11 +4271,11 @@
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
@@ -4784,11 +4286,11 @@
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
@@ -4799,7 +4301,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4810,11 +4312,11 @@
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
@@ -4825,11 +4327,11 @@
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
@@ -4851,11 +4353,11 @@
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
@@ -4866,11 +4368,11 @@
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
@@ -4912,7 +4414,7 @@
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4926,35 +4428,35 @@
         <v>314</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>130</v>
-      </c>
       <c r="F19" s="45" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>335</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>184</v>
+        <v>94</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="G20" s="19"/>
     </row>
@@ -4969,7 +4471,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4990,7 +4492,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -5001,7 +4503,7 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,7 +4512,7 @@
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +4521,7 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,12 +4530,12 @@
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
@@ -5042,12 +4544,12 @@
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +4572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5117,7 +4619,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5139,14 +4641,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5156,16 +4658,16 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
       <c r="AH5" s="19"/>
@@ -5173,15 +4675,15 @@
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
       <c r="AH6" s="19"/>
@@ -5189,15 +4691,15 @@
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
       <c r="AH7" s="19"/>
@@ -5205,7 +4707,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5239,7 +4741,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5251,13 +4753,13 @@
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -5283,7 +4785,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5293,14 +4795,14 @@
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5309,14 +4811,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5325,11 +4827,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5339,7 +4841,7 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -5351,11 +4853,11 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -5364,7 +4866,7 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5391,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5424,8 +4926,8 @@
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
-      <c r="B2" s="63" t="s">
-        <v>42</v>
+      <c r="B2" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5445,14 +4947,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5461,46 +4963,46 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5538,7 +5040,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5549,13 +5051,13 @@
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -5568,7 +5070,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -5577,11 +5079,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5590,14 +5092,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5605,11 +5107,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5629,11 +5131,11 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -5656,7 +5158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5685,8 +5187,8 @@
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
-      <c r="B2" s="63" t="s">
-        <v>359</v>
+      <c r="B2" s="64" t="s">
+        <v>361</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5706,14 +5208,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5722,46 +5224,46 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5799,7 +5301,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5810,13 +5312,13 @@
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -5840,7 +5342,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5849,11 +5351,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -5862,14 +5364,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5877,11 +5379,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5890,7 +5392,7 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -5905,7 +5407,7 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>212</v>
@@ -5920,7 +5422,7 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>210</v>
@@ -5946,7 +5448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5980,7 +5482,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6000,7 +5502,7 @@
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -6011,14 +5513,14 @@
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19"/>
       <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
@@ -6027,53 +5529,53 @@
       <c r="A6" s="19"/>
       <c r="B6" s="12"/>
       <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6084,7 +5586,7 @@
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -6104,7 +5606,7 @@
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -6116,10 +5618,10 @@
       <c r="A13" s="19"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -6132,7 +5634,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -6141,11 +5643,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -6154,14 +5656,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -6169,19 +5671,19 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" s="64" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="65" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -6190,7 +5692,7 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -6199,33 +5701,33 @@
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="48" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="48" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -6234,45 +5736,45 @@
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>187</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -6287,6 +5789,346 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19"/>
+      <c r="B2" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19"/>
+      <c r="B6" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19"/>
+      <c r="B7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19"/>
+      <c r="B13" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19"/>
+      <c r="B14" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19"/>
+      <c r="B15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19"/>
+      <c r="B16" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6318,7 +6160,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -6328,10 +6170,10 @@
     </row>
     <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6181,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6347,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,15 +6205,15 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6221,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,7 +6229,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,79 +6237,79 @@
         <v>31</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,15 +6317,15 @@
         <v>33</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6498,346 +6340,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19"/>
-      <c r="B2" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="F27" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6871,7 +6373,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6891,14 +6393,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -6907,53 +6409,53 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6964,7 +6466,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6984,7 +6486,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -6996,10 +6498,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -7012,7 +6514,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -7021,11 +6523,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -7034,14 +6536,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -7049,11 +6551,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -7061,7 +6563,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -7070,7 +6572,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -7079,33 +6581,33 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -7114,45 +6616,45 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -7184,7 +6686,7 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -7205,37 +6707,37 @@
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +6746,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -7252,204 +6754,204 @@
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12"/>
       <c r="C10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>30</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>10.95787</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="33" t="n">
         <v>59.17905</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="37" t="n">
         <v>0.06</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="37" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>365</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>60</v>
       </c>
       <c r="D26" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>115</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
       <c r="B28" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7477,10 +6979,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K39"/>
+  <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7498,460 +7000,472 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="F4" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E5" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="F7" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>30</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>1250</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="33" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="18" t="s">
+      <c r="C26" s="33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="45" t="s">
+      <c r="D26" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="E26" s="43"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="46" t="s">
+    </row>
+    <row r="29" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="46" t="s">
+      <c r="C29" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="46" t="s">
+      <c r="D29" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="J28" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="32" t="s">
+      <c r="F29" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="D29" s="34" t="s">
+      <c r="H29" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>148</v>
+      <c r="J29" s="46" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="E30" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="33" t="n">
         <v>4000</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="33" t="n">
+      <c r="F31" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="33" t="n">
         <v>0.04</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="33" t="n">
+      <c r="H31" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="33" t="n">
         <v>60</v>
       </c>
-      <c r="J30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="19" t="s">
+      <c r="J31" s="34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="35" t="s">
+      <c r="K31" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="35" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="35" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="C34" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="D34" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="E34" s="47" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="48" t="s">
+      <c r="F34" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="G34" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>165</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>166</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="19" t="s">
+      <c r="C37" s="48" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="21" t="s">
+      <c r="D37" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="19" t="s">
+      <c r="F37" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>170</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>171</v>
+      <c r="B39" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7971,7 +7485,7 @@
   <dimension ref="B2:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7986,288 +7500,288 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
       <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E7" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12"/>
       <c r="C14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E16" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="D21" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" s="49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C26" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C29" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8283,7 +7797,7 @@
         <v>187</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8294,7 +7808,7 @@
         <v>189</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>190</v>
@@ -8309,7 +7823,7 @@
         <v>189</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>190</v>
@@ -8324,7 +7838,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -8382,8 +7896,8 @@
   </sheetPr>
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8409,30 +7923,30 @@
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
       <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="49" t="n">
         <v>0</v>
@@ -8454,13 +7968,13 @@
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="E8" s="49" t="n">
         <v>0</v>
@@ -8486,41 +8000,41 @@
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12"/>
       <c r="C14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="E15" s="49" t="n">
         <v>0</v>
@@ -8531,13 +8045,13 @@
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="E16" s="49" t="n">
         <v>0</v>
@@ -8558,18 +8072,18 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8587,32 +8101,32 @@
         <v>0</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>204</v>
@@ -8626,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8644,43 +8158,43 @@
         <v>0</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>218</v>
@@ -8873,90 +8387,90 @@
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
       <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E7" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,54 +8482,54 @@
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -9028,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>212</v>
@@ -9042,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>210</v>
@@ -9112,7 +8626,7 @@
         <v>241</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>242</v>
@@ -9194,7 +8708,7 @@
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9260,7 +8774,7 @@
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9324,10 +8838,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>251</v>
@@ -9351,7 +8865,7 @@
         <v>254</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="33" t="n">
         <v>0</v>
@@ -9368,7 +8882,7 @@
         <v>255</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="33" t="n">
         <v>0</v>
@@ -9385,7 +8899,7 @@
         <v>256</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="33" t="n">
         <v>0</v>
@@ -9419,7 +8933,7 @@
         <v>259</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D57" s="33" t="n">
         <v>0</v>
@@ -9436,7 +8950,7 @@
         <v>260</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="33" t="n">
         <v>0</v>
@@ -9508,7 +9022,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9555,29 +9069,29 @@
         <v>264</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19"/>
       <c r="B5" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>100000</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="33" t="n">
         <v>7200</v>
@@ -9592,19 +9106,19 @@
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>50000</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -9614,35 +9128,35 @@
         <v>267</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>6000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>268</v>
@@ -9651,19 +9165,19 @@
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="19"/>
     </row>
@@ -9701,7 +9215,7 @@
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -9715,10 +9229,10 @@
         <v>271</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -9727,13 +9241,13 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -9742,7 +9256,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>0</v>
@@ -9757,16 +9271,16 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -9774,13 +9288,13 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -9798,13 +9312,13 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -9813,13 +9327,13 @@
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>15</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -9828,13 +9342,13 @@
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -9843,116 +9357,130 @@
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19"/>
       <c r="B24" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="33" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>92</v>
-      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="48" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C29" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="D29" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="53" t="s">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="60" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C32" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="53"/>
-    </row>
-    <row r="32" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="60" t="s">
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C33" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="53"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="60" t="s">
+      <c r="D33" s="53"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="D33" s="53"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="60" t="s">
+      <c r="D34" s="53"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C35" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="53"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D35" s="53"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9972,7 +9500,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10016,14 +9544,14 @@
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -10032,54 +9560,54 @@
       <c r="A5" s="19"/>
       <c r="B5" s="12"/>
       <c r="C5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10117,7 +9645,7 @@
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -10129,10 +9657,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10147,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -10156,13 +9684,13 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -10171,16 +9699,16 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -10188,13 +9716,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -10217,7 +9745,7 @@
         <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -10230,7 +9758,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>290</v>
@@ -10246,7 +9774,7 @@
       <c r="E22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="61" t="s">
         <v>281</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -10256,7 +9784,7 @@
       <c r="E23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>283</v>
       </c>
       <c r="C24" s="53" t="s">
@@ -10266,7 +9794,7 @@
       <c r="E24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="61" t="s">
         <v>285</v>
       </c>
       <c r="C25" s="53" t="s">

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="380">
   <si>
     <t xml:space="preserve">User template for the definition of specific…</t>
   </si>
@@ -513,10 +513,7 @@
     <t xml:space="preserve">Distribution efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">Feed-in tariff (RES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed-in tariff (non-RES)</t>
+    <t xml:space="preserve">Feed-in tariff</t>
   </si>
   <si>
     <t xml:space="preserve">Optimize additional capacities</t>
@@ -1839,8 +1836,8 @@
   </sheetPr>
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2543,7 +2540,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -2606,7 +2603,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -2617,7 +2614,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -2661,7 +2658,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -2682,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -2708,13 +2705,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -2731,10 +2728,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>91</v>
@@ -2744,67 +2741,67 @@
     </row>
     <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>299</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="E21" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>281</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2832,8 +2829,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2857,7 +2854,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -2877,7 +2874,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>120</v>
@@ -2934,7 +2931,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>120</v>
@@ -2965,10 +2962,10 @@
         <v>4000</v>
       </c>
       <c r="F8" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +2990,7 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>120</v>
@@ -3050,7 +3047,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>120</v>
@@ -3107,7 +3104,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3118,7 +3115,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3149,22 +3146,22 @@
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="D20" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="E20" s="45" t="s">
         <v>316</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C21" s="49" t="n">
         <v>10</v>
@@ -3179,7 +3176,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" s="49" t="n">
         <v>10</v>
@@ -3194,7 +3191,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>10</v>
@@ -3209,7 +3206,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>10</v>
@@ -3228,13 +3225,13 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>90</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="49" t="n">
         <v>20</v>
@@ -3256,7 +3253,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="49" t="n">
         <v>100</v>
@@ -3267,7 +3264,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" s="49" t="n">
         <v>95</v>
@@ -3278,18 +3275,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="49" t="n">
         <v>95</v>
@@ -3300,7 +3297,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="49" t="n">
         <v>1</v>
@@ -3311,43 +3308,43 @@
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="C34" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="49" t="s">
         <v>324</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>325</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>90</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="49" t="n">
         <v>100</v>
@@ -3369,13 +3366,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3422,7 +3419,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3449,7 +3446,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3474,7 +3471,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3493,7 +3490,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3508,14 +3505,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -3534,7 +3531,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -3549,14 +3546,14 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -3575,7 +3572,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -3590,14 +3587,14 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -3608,7 +3605,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>128</v>
@@ -3648,7 +3645,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,18 +3656,18 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -3679,7 +3676,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -3700,14 +3697,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -3716,7 +3713,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -3725,7 +3722,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -3734,7 +3731,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
@@ -3743,16 +3740,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3807,7 +3804,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3859,7 +3856,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3900,7 +3897,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -3919,7 +3916,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -3941,7 +3938,7 @@
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -3982,7 +3979,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -3993,7 +3990,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>128</v>
@@ -4031,7 +4028,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,18 +4039,18 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4071,7 +4068,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4083,14 +4080,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -4099,7 +4096,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -4108,7 +4105,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -4117,16 +4114,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
@@ -4135,7 +4132,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31" t="s">
@@ -4144,16 +4141,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4208,7 +4205,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4235,7 +4232,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4260,7 +4257,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4279,7 +4276,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4294,14 +4291,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4320,7 +4317,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -4335,14 +4332,14 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4361,7 +4358,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G13" s="19"/>
     </row>
@@ -4376,14 +4373,14 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4394,7 +4391,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4425,7 +4422,7 @@
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>128</v>
@@ -4437,7 +4434,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="19"/>
     </row>
@@ -4450,19 +4447,19 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4492,14 +4489,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -4508,7 +4505,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -4517,7 +4514,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -4526,7 +4523,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
@@ -4535,21 +4532,21 @@
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +4645,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4707,7 +4704,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4719,7 +4716,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -4769,7 +4766,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -4781,7 +4778,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -4802,7 +4799,7 @@
         <v>135</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -4827,11 +4824,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -4841,7 +4838,7 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -4853,7 +4850,7 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
@@ -4866,7 +4863,7 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4954,7 +4951,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5009,7 +5006,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5020,7 +5017,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5066,7 +5063,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -5107,11 +5104,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5120,7 +5117,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -5131,11 +5128,11 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -5188,7 +5185,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5215,7 +5212,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5270,7 +5267,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5281,7 +5278,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5327,7 +5324,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -5338,7 +5335,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5379,11 +5376,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5403,14 +5400,14 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -5418,14 +5415,14 @@
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5482,7 +5479,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5502,7 +5499,7 @@
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5520,7 +5517,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
@@ -5575,7 +5572,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5586,7 +5583,7 @@
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5630,7 +5627,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5671,11 +5668,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5683,7 +5680,7 @@
     </row>
     <row r="18" s="65" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5692,7 +5689,7 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -5704,7 +5701,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>91</v>
@@ -5714,20 +5711,20 @@
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>369</v>
       </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -5746,7 +5743,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>91</v>
@@ -5754,27 +5751,27 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -5834,7 +5831,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5861,7 +5858,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5916,7 +5913,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5927,7 +5924,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5971,7 +5968,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -6012,11 +6009,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -6024,7 +6021,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6033,7 +6030,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6045,7 +6042,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>91</v>
@@ -6055,20 +6052,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6077,7 +6074,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -6087,7 +6084,7 @@
         <v>89</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>91</v>
@@ -6095,27 +6092,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6373,7 +6370,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6400,7 +6397,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -6455,7 +6452,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6466,7 +6463,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6510,7 +6507,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -6551,11 +6548,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6572,7 +6569,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6584,7 +6581,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>91</v>
@@ -6594,20 +6591,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>369</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6616,7 +6613,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -6626,7 +6623,7 @@
         <v>89</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>91</v>
@@ -6634,27 +6631,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6979,10 +6976,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7244,228 +7241,216 @@
       <c r="B25" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="33" t="n">
-        <v>0</v>
+      <c r="C25" s="33" t="s">
+        <v>139</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>83</v>
+      <c r="I29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>149</v>
-      </c>
       <c r="E30" s="33" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="33" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="33" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="33" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="33" t="n">
-        <v>60</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" s="19" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="18" t="s">
+    <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="35" t="s">
         <v>153</v>
       </c>
+      <c r="C33" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>158</v>
+      <c r="B34" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>135</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>135</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="19" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="21" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="3" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7500,12 +7485,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7502,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -7572,17 +7557,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7594,7 +7579,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -7649,12 +7634,12 @@
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +7660,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
@@ -7716,23 +7701,23 @@
         <v>117</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>182</v>
-      </c>
-      <c r="C26" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
@@ -7775,26 +7760,26 @@
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>186</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>187</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>91</v>
@@ -7802,67 +7787,67 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="49" t="s">
         <v>188</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>189</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>189</v>
-      </c>
       <c r="D40" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7913,12 +7898,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,7 +7915,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -7951,7 +7936,7 @@
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="49" t="n">
         <v>0</v>
@@ -7963,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,22 +7965,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,7 +7992,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8040,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8057,17 +8042,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,14 +8073,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>0</v>
@@ -8129,30 +8114,30 @@
         <v>117</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="33" t="n">
         <v>0</v>
@@ -8188,67 +8173,67 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="34" t="s">
+      <c r="E33" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="C34" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -8260,32 +8245,32 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>215</v>
-      </c>
-      <c r="C38" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="50" t="s">
         <v>217</v>
-      </c>
-      <c r="C39" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="33" t="n">
         <v>0</v>
@@ -8294,12 +8279,12 @@
         <v>117</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -8307,24 +8292,24 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="C42" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>223</v>
-      </c>
-      <c r="C43" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -8377,12 +8362,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,7 +8379,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -8475,7 +8460,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -8518,13 +8503,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +8521,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>0</v>
@@ -8545,12 +8530,12 @@
         <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>0</v>
@@ -8559,25 +8544,25 @@
         <v>114</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -8585,10 +8570,10 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -8596,10 +8581,10 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -8607,29 +8592,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="D31" s="45" t="s">
         <v>240</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>241</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8641,7 +8626,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
@@ -8650,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0</v>
@@ -8658,7 +8643,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="33" t="n">
         <v>0</v>
@@ -8667,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F34" s="33" t="n">
         <v>0</v>
@@ -8675,7 +8660,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
@@ -8684,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F35" s="33" t="n">
         <v>0</v>
@@ -8695,37 +8680,37 @@
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E37" s="55"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="56" t="n">
         <v>0</v>
@@ -8739,7 +8724,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="56" t="n">
         <v>0</v>
@@ -8753,7 +8738,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="56" t="n">
         <v>0</v>
@@ -8767,31 +8752,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12"/>
       <c r="C45" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="56" t="n">
         <v>0</v>
@@ -8805,7 +8790,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="56" t="n">
         <v>0</v>
@@ -8819,7 +8804,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="56" t="n">
         <v>0</v>
@@ -8833,7 +8818,7 @@
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8844,13 +8829,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="F51" s="45" t="s">
         <v>252</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8862,7 +8847,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>117</v>
@@ -8879,7 +8864,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>117</v>
@@ -8896,7 +8881,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>117</v>
@@ -8913,10 +8898,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="57" t="s">
         <v>257</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>258</v>
       </c>
       <c r="D56" s="33" t="n">
         <v>0</v>
@@ -8930,7 +8915,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>117</v>
@@ -8947,7 +8932,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>101</v>
@@ -8964,10 +8949,10 @@
     </row>
     <row r="59" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="57" t="s">
         <v>261</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>262</v>
       </c>
       <c r="D59" s="33" t="n">
         <v>0</v>
@@ -9021,8 +9006,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9046,7 +9031,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -9066,7 +9051,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>120</v>
@@ -9097,10 +9082,10 @@
         <v>7200</v>
       </c>
       <c r="F5" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9125,7 +9110,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>120</v>
@@ -9159,7 +9144,7 @@
         <v>122</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9184,7 +9169,7 @@
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -9195,7 +9180,7 @@
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -9226,7 +9211,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>90</v>
@@ -9253,7 +9238,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
         <v>134</v>
@@ -9262,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -9285,16 +9270,16 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -9312,7 +9297,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>90</v>
@@ -9339,7 +9324,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="34" t="s">
         <v>134</v>
@@ -9374,7 +9359,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>100</v>
@@ -9386,20 +9371,20 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -9408,10 +9393,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>91</v>
@@ -9421,59 +9406,59 @@
     </row>
     <row r="29" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>277</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>278</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F29" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="53" t="s">
         <v>281</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>282</v>
       </c>
       <c r="D32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="62" t="s">
         <v>283</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>284</v>
       </c>
       <c r="D33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="53" t="s">
         <v>285</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>286</v>
       </c>
       <c r="D34" s="53"/>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="53" t="s">
         <v>287</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>288</v>
       </c>
       <c r="D35" s="53"/>
     </row>
@@ -9551,7 +9536,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -9614,7 +9599,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -9625,7 +9610,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -9669,7 +9654,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -9716,13 +9701,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -9730,7 +9715,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -9739,10 +9724,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>91</v>
@@ -9752,22 +9737,22 @@
     </row>
     <row r="20" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -9775,30 +9760,30 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>281</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>282</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -594,10 +594,10 @@
     <t xml:space="preserve">Demand 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reefers (heating and cooling)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demand_reefers.csv</t>
+    <t xml:space="preserve">Habor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand_habor.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Demand 3</t>
@@ -972,7 +972,7 @@
     <t xml:space="preserve">Historical electricity generation</t>
   </si>
   <si>
-    <t xml:space="preserve">pv_gen.csv</t>
+    <t xml:space="preserve">pv_gen_merra2_2014_eff1_tilt40_az180.csv</t>
   </si>
   <si>
     <t xml:space="preserve">electric, timeseries, hourly values, per kWp installed</t>
@@ -1836,7 +1836,7 @@
   </sheetPr>
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6683,8 +6683,8 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6978,8 +6978,8 @@
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7389,7 +7389,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
         <v>163</v>
       </c>
@@ -9007,7 +9007,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="384">
   <si>
     <t xml:space="preserve">User template for the definition of specific…</t>
   </si>
@@ -471,6 +471,9 @@
     <t xml:space="preserve">currency/kW*</t>
   </si>
   <si>
+    <t xml:space="preserve">currency/kW/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">currency/kWh**</t>
   </si>
   <si>
@@ -724,6 +727,9 @@
     <t xml:space="preserve">currency/m3*</t>
   </si>
   <si>
+    <t xml:space="preserve">currency/m3/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">currency/m3**</t>
   </si>
   <si>
@@ -936,7 +942,10 @@
     <t xml:space="preserve">currency/kWp*</t>
   </si>
   <si>
-    <t xml:space="preserve">(1500 NOK/250 Wp PV, 25% extra)</t>
+    <t xml:space="preserve">(1500 NOK/250 Wp PV, 20% extra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency/kWp/a</t>
   </si>
   <si>
     <t xml:space="preserve">Solar MPP, inverter</t>
@@ -1069,6 +1078,9 @@
     <t xml:space="preserve">(40000 NOK/10kW)</t>
   </si>
   <si>
+    <t xml:space="preserve">currency/kWh/a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storage discharging power</t>
   </si>
   <si>
@@ -1168,7 +1180,7 @@
     <t xml:space="preserve">Storage charging stream</t>
   </si>
   <si>
-    <t xml:space="preserve">Storage volumne</t>
+    <t xml:space="preserve">Storage volume</t>
   </si>
   <si>
     <t xml:space="preserve">Storage discharging stream</t>
@@ -1836,7 +1848,7 @@
   </sheetPr>
   <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2488,15 +2500,17 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -2540,7 +2554,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -2590,20 +2604,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -2614,7 +2628,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -2658,7 +2672,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -2673,13 +2687,13 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -2688,7 +2702,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -2697,7 +2711,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -2705,13 +2719,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -2719,7 +2733,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -2728,10 +2742,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>91</v>
@@ -2741,67 +2755,67 @@
     </row>
     <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="53" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="61" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="61" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2829,15 +2843,17 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -2854,7 +2870,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -2874,7 +2890,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>120</v>
@@ -2918,20 +2934,20 @@
         <v>0</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>120</v>
@@ -2962,10 +2978,10 @@
         <v>4000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,20 +2993,20 @@
         <v>0</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>120</v>
@@ -3034,20 +3050,20 @@
         <v>0</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E12" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="42" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>120</v>
@@ -3091,20 +3107,20 @@
         <v>0</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E15" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3115,7 +3131,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3146,22 +3162,22 @@
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="54" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C21" s="49" t="n">
         <v>10</v>
@@ -3176,7 +3192,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="54" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C22" s="49" t="n">
         <v>10</v>
@@ -3191,7 +3207,7 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="54" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>10</v>
@@ -3206,7 +3222,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="54" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>10</v>
@@ -3225,13 +3241,13 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>90</v>
@@ -3242,7 +3258,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C28" s="49" t="n">
         <v>20</v>
@@ -3253,7 +3269,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C29" s="49" t="n">
         <v>100</v>
@@ -3264,7 +3280,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C30" s="49" t="n">
         <v>95</v>
@@ -3275,18 +3291,18 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C32" s="49" t="n">
         <v>95</v>
@@ -3297,7 +3313,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C33" s="49" t="n">
         <v>1</v>
@@ -3308,43 +3324,43 @@
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C34" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>90</v>
@@ -3355,7 +3371,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="48" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C38" s="49" t="n">
         <v>100</v>
@@ -3366,13 +3382,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3394,15 +3410,17 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -3419,7 +3437,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3446,7 +3464,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3471,7 +3489,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3490,7 +3508,7 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3501,18 +3519,18 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -3531,29 +3549,29 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -3572,29 +3590,29 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -3605,7 +3623,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3633,19 +3651,19 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,18 +3674,18 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -3676,7 +3694,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -3685,7 +3703,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -3697,14 +3715,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -3713,7 +3731,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -3722,7 +3740,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -3731,7 +3749,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
@@ -3740,16 +3758,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3779,15 +3797,17 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -3804,7 +3824,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -3831,7 +3851,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -3856,7 +3876,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -3886,18 +3906,18 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -3916,7 +3936,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G10" s="19"/>
     </row>
@@ -3927,18 +3947,18 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -3968,18 +3988,18 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -3990,7 +4010,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4016,19 +4036,19 @@
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,18 +4059,18 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4059,7 +4079,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4068,7 +4088,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4080,14 +4100,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -4096,7 +4116,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -4105,7 +4125,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -4114,16 +4134,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
@@ -4132,7 +4152,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31" t="s">
@@ -4141,16 +4161,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="48" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="53" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4180,15 +4200,17 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -4205,7 +4227,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4232,7 +4254,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4257,7 +4279,7 @@
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="42" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -4276,29 +4298,29 @@
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="42" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
@@ -4317,29 +4339,29 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="42" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -4358,29 +4380,29 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4391,7 +4413,7 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4422,19 +4444,19 @@
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" s="19"/>
     </row>
@@ -4447,19 +4469,19 @@
         <v>94</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -4468,7 +4490,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="54" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -4477,7 +4499,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="54" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -4489,14 +4511,14 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31" t="s">
@@ -4505,7 +4527,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31" t="s">
@@ -4514,7 +4536,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31" t="s">
@@ -4523,7 +4545,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31" t="s">
@@ -4532,21 +4554,21 @@
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="48" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="53" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="53" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4576,8 +4598,8 @@
   </sheetPr>
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4645,7 +4667,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4692,11 +4714,11 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
       <c r="AH7" s="19"/>
@@ -4704,7 +4726,7 @@
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4716,7 +4738,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -4766,7 +4788,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -4778,7 +4800,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -4792,14 +4814,14 @@
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -4808,14 +4830,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4824,11 +4846,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -4838,7 +4860,7 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -4850,7 +4872,7 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
@@ -4863,7 +4885,7 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -4897,8 +4919,8 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4951,7 +4973,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -4988,25 +5010,25 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5017,7 +5039,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5063,7 +5085,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -5076,11 +5098,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5089,14 +5111,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5104,11 +5126,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5117,7 +5139,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -5128,11 +5150,11 @@
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -5162,8 +5184,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5185,7 +5207,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="64" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5212,7 +5234,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5249,25 +5271,25 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5278,7 +5300,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5324,7 +5346,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -5335,7 +5357,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5348,11 +5370,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -5361,14 +5383,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5376,11 +5398,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5400,14 +5422,14 @@
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -5415,14 +5437,14 @@
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5452,7 +5474,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5479,7 +5501,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5499,7 +5521,7 @@
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="21" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5517,7 +5539,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
@@ -5565,14 +5587,14 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5583,7 +5605,7 @@
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5627,7 +5649,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
@@ -5640,11 +5662,11 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -5653,14 +5675,14 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5668,11 +5690,11 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -5680,7 +5702,7 @@
     </row>
     <row r="18" s="65" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5689,7 +5711,7 @@
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -5701,7 +5723,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>91</v>
@@ -5711,20 +5733,20 @@
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5733,7 +5755,7 @@
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -5743,7 +5765,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>91</v>
@@ -5751,27 +5773,27 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F28" s="21"/>
     </row>
@@ -5804,8 +5826,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5831,7 +5853,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5858,7 +5880,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -5895,25 +5917,25 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5924,7 +5946,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5968,7 +5990,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -5981,11 +6003,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -5994,14 +6016,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -6009,11 +6031,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -6021,7 +6043,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6030,7 +6052,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6042,7 +6064,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>91</v>
@@ -6052,20 +6074,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6074,7 +6096,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -6084,7 +6106,7 @@
         <v>89</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>91</v>
@@ -6092,27 +6114,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6144,7 +6166,7 @@
   </sheetPr>
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6343,8 +6365,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6370,7 +6392,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6397,7 +6419,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -6434,25 +6456,25 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6463,7 +6485,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -6507,7 +6529,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34" t="s">
@@ -6520,11 +6542,11 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -6533,14 +6555,14 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -6548,11 +6570,11 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -6560,7 +6582,7 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6569,7 +6591,7 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -6581,7 +6603,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>91</v>
@@ -6591,20 +6613,20 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="48" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -6613,7 +6635,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -6623,7 +6645,7 @@
         <v>89</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>91</v>
@@ -6631,27 +6653,27 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -6683,7 +6705,7 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6902,7 +6924,7 @@
         <v>107</v>
       </c>
       <c r="C25" s="33" t="n">
-        <v>365</v>
+        <v>7</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>108</v>
@@ -6978,8 +7000,8 @@
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7017,7 +7039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="32" t="s">
         <v>84</v>
       </c>
@@ -7034,7 +7056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
         <v>86</v>
       </c>
@@ -7042,18 +7064,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>120</v>
@@ -7090,26 +7112,27 @@
         <v>86</v>
       </c>
       <c r="C9" s="33" t="n">
-        <v>0</v>
+        <f aca="false">60*12</f>
+        <v>720</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +7142,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>90</v>
@@ -7130,7 +7153,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
@@ -7141,7 +7164,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>10</v>
@@ -7150,12 +7173,12 @@
         <v>94</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>1</v>
@@ -7164,12 +7187,12 @@
         <v>117</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>90</v>
@@ -7180,7 +7203,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>30</v>
@@ -7191,18 +7214,21 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="33" t="n">
         <v>1250</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5</v>
@@ -7211,12 +7237,12 @@
         <v>94</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>96</v>
@@ -7227,10 +7253,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>114</v>
@@ -7239,59 +7265,59 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" s="44" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="46" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H28" s="46" t="s">
         <v>83</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J28" s="46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" s="33" t="n">
         <v>50</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" s="33" t="n">
         <v>0</v>
@@ -7309,18 +7335,18 @@
         <v>0</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" s="33" t="n">
         <v>4000</v>
@@ -7338,100 +7364,100 @@
         <v>60</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -7440,12 +7466,12 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7469,8 +7495,8 @@
   </sheetPr>
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7485,12 +7511,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,7 +7528,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -7538,7 +7564,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
         <v>86</v>
       </c>
@@ -7546,28 +7572,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E8" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +7605,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -7615,7 +7641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="32" t="s">
         <v>86</v>
       </c>
@@ -7623,23 +7649,23 @@
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E16" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7660,14 +7686,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>0</v>
@@ -7678,7 +7704,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="49" t="n">
         <v>0</v>
@@ -7687,12 +7713,12 @@
         <v>94</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" s="49" t="n">
         <v>100</v>
@@ -7701,30 +7727,30 @@
         <v>117</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="49" t="n">
         <v>0</v>
@@ -7735,18 +7761,18 @@
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="49" t="n">
         <v>0</v>
@@ -7755,31 +7781,31 @@
         <v>94</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="49" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>91</v>
@@ -7787,67 +7813,67 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>190</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="F36" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7881,8 +7907,8 @@
   </sheetPr>
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7898,12 +7924,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +7941,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -7936,7 +7962,7 @@
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" s="49" t="n">
         <v>0</v>
@@ -7948,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,28 +7985,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E8" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,7 +8018,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8025,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,23 +8062,23 @@
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="E16" s="49" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,14 +8099,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>0</v>
@@ -8091,7 +8117,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>0</v>
@@ -8100,12 +8126,12 @@
         <v>94</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>0</v>
@@ -8114,30 +8140,30 @@
         <v>117</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C28" s="33" t="n">
         <v>0</v>
@@ -8148,18 +8174,18 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="33" t="n">
         <v>0</v>
@@ -8168,72 +8194,72 @@
         <v>94</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>208</v>
-      </c>
       <c r="E34" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -8245,32 +8271,32 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C38" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C39" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C40" s="33" t="n">
         <v>0</v>
@@ -8279,12 +8305,12 @@
         <v>117</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -8292,24 +8318,24 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C42" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C43" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8343,8 +8369,8 @@
   </sheetPr>
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8362,12 +8388,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,7 +8405,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -8415,7 +8441,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="32" t="s">
         <v>86</v>
       </c>
@@ -8423,23 +8449,23 @@
         <v>0</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,14 +8486,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -8478,18 +8504,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>0</v>
@@ -8498,18 +8524,18 @@
         <v>94</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,7 +8547,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>0</v>
@@ -8530,12 +8556,12 @@
         <v>114</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>0</v>
@@ -8544,25 +8570,25 @@
         <v>114</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -8570,10 +8596,10 @@
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -8581,10 +8607,10 @@
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -8592,29 +8618,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="53" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>91</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8626,7 +8652,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C33" s="33" t="n">
         <v>0</v>
@@ -8635,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0</v>
@@ -8643,7 +8669,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C34" s="33" t="n">
         <v>0</v>
@@ -8652,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F34" s="33" t="n">
         <v>0</v>
@@ -8660,7 +8686,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C35" s="33" t="n">
         <v>0</v>
@@ -8669,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="33" t="n">
         <v>0</v>
@@ -8680,37 +8706,37 @@
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E37" s="55"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C40" s="56" t="n">
         <v>0</v>
@@ -8724,7 +8750,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C41" s="56" t="n">
         <v>0</v>
@@ -8738,7 +8764,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C42" s="56" t="n">
         <v>0</v>
@@ -8752,31 +8778,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12"/>
       <c r="C45" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C46" s="56" t="n">
         <v>0</v>
@@ -8790,7 +8816,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C47" s="56" t="n">
         <v>0</v>
@@ -8804,7 +8830,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C48" s="56" t="n">
         <v>0</v>
@@ -8818,7 +8844,7 @@
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8829,13 +8855,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,7 +8873,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>117</v>
@@ -8864,7 +8890,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>117</v>
@@ -8881,7 +8907,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>117</v>
@@ -8898,10 +8924,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="54" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D56" s="33" t="n">
         <v>0</v>
@@ -8915,7 +8941,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>117</v>
@@ -8932,7 +8958,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="54" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>101</v>
@@ -8949,10 +8975,10 @@
     </row>
     <row r="59" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D59" s="33" t="n">
         <v>0</v>
@@ -9006,16 +9032,16 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="20.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -9031,7 +9057,7 @@
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19"/>
       <c r="B2" s="59" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -9051,7 +9077,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>120</v>
@@ -9067,7 +9093,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19"/>
       <c r="B5" s="32" t="s">
         <v>84</v>
@@ -9082,35 +9108,35 @@
         <v>7200</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="33" t="n">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="42" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>120</v>
@@ -9126,7 +9152,7 @@
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="32" t="s">
         <v>84</v>
@@ -9144,7 +9170,7 @@
         <v>122</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,20 +9182,20 @@
         <v>0</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -9180,7 +9206,7 @@
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -9211,7 +9237,7 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>90</v>
@@ -9226,7 +9252,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>30</v>
@@ -9241,13 +9267,13 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -9256,7 +9282,7 @@
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
       <c r="B17" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>0</v>
@@ -9265,7 +9291,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -9273,13 +9299,13 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -9297,7 +9323,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
       <c r="B20" s="27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>90</v>
@@ -9312,7 +9338,7 @@
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>15</v>
@@ -9327,13 +9353,13 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -9342,7 +9368,7 @@
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
       <c r="B23" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>0</v>
@@ -9351,7 +9377,7 @@
         <v>94</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -9359,7 +9385,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
       <c r="B24" s="34" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C24" s="33" t="n">
         <v>100</v>
@@ -9373,18 +9399,18 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -9393,10 +9419,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="35" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>91</v>
@@ -9406,59 +9432,59 @@
     </row>
     <row r="29" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="48" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F29" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="53" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D32" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="61" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="61" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D34" s="53"/>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="61" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D35" s="53"/>
     </row>
@@ -9484,15 +9510,17 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
@@ -9536,7 +9564,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="19"/>
@@ -9586,20 +9614,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -9610,7 +9638,7 @@
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -9654,7 +9682,7 @@
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
       <c r="B13" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>0</v>
@@ -9669,13 +9697,13 @@
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -9684,7 +9712,7 @@
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>0</v>
@@ -9693,7 +9721,7 @@
         <v>94</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -9701,13 +9729,13 @@
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
       <c r="B16" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -9715,7 +9743,7 @@
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -9724,10 +9752,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>91</v>
@@ -9737,22 +9765,22 @@
     </row>
     <row r="20" customFormat="false" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="48" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F20" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -9760,30 +9788,30 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="61" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="61" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -2509,7 +2509,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
@@ -3419,7 +3419,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
@@ -6705,7 +6705,7 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6924,7 +6924,7 @@
         <v>107</v>
       </c>
       <c r="C25" s="33" t="n">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>108</v>
@@ -7000,7 +7000,7 @@
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/inputs/test_input_file_v1.xlsx
+++ b/inputs/test_input_file_v1.xlsx
@@ -1777,7 +1777,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1785,7 +1784,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -6715,7 +6713,7 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -7010,7 +7008,7 @@
   </sheetPr>
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7122,8 +7120,8 @@
         <v>86</v>
       </c>
       <c r="C9" s="33" t="n">
-        <f aca="false">600*12</f>
-        <v>7200</v>
+        <f aca="false">60*12</f>
+        <v>720</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>123</v>
@@ -7266,7 +7264,7 @@
         <v>138</v>
       </c>
       <c r="C24" s="33" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>114</v>
@@ -7371,7 +7369,7 @@
         <v>114</v>
       </c>
       <c r="I30" s="33" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>150</v>
